--- a/data/1/СИиЕ/!печать/З/номера зачеток СИиЕ заочное поступившие на 2 курс.xlsx
+++ b/data/1/СИиЕ/!печать/З/номера зачеток СИиЕ заочное поступившие на 2 курс.xlsx
@@ -5,24 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Студенческие\2023-24\СИиЕ\!печать\З\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwlo\zachetker\data-sharer\data\1\СИиЕ\!печать\З\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64A2822-F4D0-4F27-876F-33CFA0BB52AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB540557-CD4E-48A0-84EF-DE58007D20E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="121" sheetId="2" r:id="rId1"/>
     <sheet name="122" sheetId="3" r:id="rId2"/>
-    <sheet name="123" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>121</t>
   </si>
@@ -39,9 +38,6 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>№ студенческого билета, зачетки</t>
-  </si>
-  <si>
     <t>Дата</t>
   </si>
   <si>
@@ -69,9 +65,6 @@
     <t>231429</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>№ Бланка</t>
   </si>
   <si>
@@ -91,6 +84,9 @@
   </si>
   <si>
     <t>0807684</t>
+  </si>
+  <si>
+    <t>N_ZACHET</t>
   </si>
 </sst>
 </file>
@@ -530,27 +526,27 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +556,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -568,42 +564,42 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I4" s="10"/>
     </row>
@@ -618,29 +614,29 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -648,7 +644,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -656,62 +652,62 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5" s="10"/>
     </row>
@@ -719,40 +715,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/1/СИиЕ/!печать/З/номера зачеток СИиЕ заочное поступившие на 2 курс.xlsx
+++ b/data/1/СИиЕ/!печать/З/номера зачеток СИиЕ заочное поступившие на 2 курс.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwlo\zachetker\data-sharer\data\1\СИиЕ\!печать\З\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB540557-CD4E-48A0-84EF-DE58007D20E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15779B0-4028-46C0-90F3-62AE1DB29B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="121" sheetId="2" r:id="rId1"/>
@@ -21,16 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Заочное</t>
-  </si>
-  <si>
-    <t>СПФ СИиЕ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>№ п/п</t>
   </si>
@@ -48,9 +39,6 @@
   </si>
   <si>
     <t>231427</t>
-  </si>
-  <si>
-    <t>122</t>
   </si>
   <si>
     <t>Астапов Вячеслав Витальевич</t>
@@ -93,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +93,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -159,10 +140,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -177,9 +156,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -523,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,72 +512,57 @@
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="10"/>
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -611,10 +572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,95 +585,80 @@
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="10"/>
+      <c r="I3" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>